--- a/Mifos Automation Excels/Client/4709-SUBMITSAVINGS01JAN2015-APPROVEON15JAN2015-UNDOAPPROVE-APPROVEON01JAN2015-ADDCHARGE-ACTIVATEON01JAN2015.xlsx
+++ b/Mifos Automation Excels/Client/4709-SUBMITSAVINGS01JAN2015-APPROVEON15JAN2015-UNDOAPPROVE-APPROVEON01JAN2015-ADDCHARGE-ACTIVATEON01JAN2015.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="NewSavingInput" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Saving Transaction" sheetId="3" r:id="rId3"/>
     <sheet name="Saving Charges" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -174,7 +174,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -242,7 +242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -260,6 +260,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -348,7 +351,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -400,7 +403,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -594,7 +597,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -605,7 +608,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -875,7 +878,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -945,16 +948,16 @@
         <v>46</v>
       </c>
       <c r="J2" s="6"/>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="9" t="s">
         <v>48</v>
       </c>
       <c r="O2" s="6"/>
@@ -963,5 +966,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>